--- a/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-medication-category-vs.xlsx
+++ b/jpcore-r4/feature/swg3-医療機関コード説明見直し/ValueSet-jp-medication-category-vs.xlsx
@@ -26,7 +26,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/ValueSet/JP_MedicationCategory_VS</t>
+    <t>http://jpfhir.jp/fhir/core/ValueSet/JP_MedicationCategory_VS</t>
   </si>
   <si>
     <t>Version</t>
@@ -113,10 +113,10 @@
     <t>System URI</t>
   </si>
   <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
-  </si>
-  <si>
-    <t>http://jpfhir.jp/fhir/Common/CodeSystem/JHSP0007</t>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JP_MedicationCategoryMERIT9_CS</t>
+  </si>
+  <si>
+    <t>http://jpfhir.jp/fhir/core/CodeSystem/JHSP0007</t>
   </si>
   <si>
     <t>http://terminology.hl7.org/CodeSystem/v2-0482</t>
